--- a/automating_travelsite/src/main/resources/datas/Automation_Travelsite.xlsx
+++ b/automating_travelsite/src/main/resources/datas/Automation_Travelsite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="11">
   <si>
     <t>Username</t>
   </si>
@@ -27,6 +27,12 @@
   </si>
   <si>
     <t>alfinxavier.a</t>
+  </si>
+  <si>
+    <t>alfin.anthonyraj@atmecs.com</t>
+  </si>
+  <si>
+    <t>ShaneAlfin.A@118</t>
   </si>
   <si>
     <t>Source</t>
@@ -54,7 +60,7 @@
     <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,6 +69,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -79,7 +91,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -108,6 +128,14 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -116,7 +144,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -146,16 +174,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,38 +191,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,187 +228,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,9 +424,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -449,6 +487,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -463,54 +519,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -528,136 +540,138 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -977,13 +991,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="31.4285714285714" customWidth="1"/>
     <col min="2" max="2" width="17.8571428571429" customWidth="1"/>
@@ -998,16 +1012,64 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="shanealfin720@gmail.com" tooltip="mailto:shanealfin720@gmail.com"/>
+    <hyperlink ref="A3" r:id="rId2" display="alfin.anthonyraj@atmecs.com" tooltip="mailto:alfin.anthonyraj@atmecs.com"/>
+    <hyperlink ref="A4" r:id="rId1" display="shanealfin720@gmail.com" tooltip="mailto:shanealfin720@gmail.com"/>
+    <hyperlink ref="A6" r:id="rId1" display="shanealfin720@gmail.com" tooltip="mailto:shanealfin720@gmail.com"/>
+    <hyperlink ref="A5" r:id="rId2" display="alfin.anthonyraj@atmecs.com" tooltip="mailto:alfin.anthonyraj@atmecs.com"/>
+    <hyperlink ref="A7" r:id="rId2" display="alfin.anthonyraj@atmecs.com" tooltip="mailto:alfin.anthonyraj@atmecs.com"/>
+    <hyperlink ref="B3" r:id="rId3" display="ShaneAlfin.A@118"/>
+    <hyperlink ref="B5" r:id="rId3" display="ShaneAlfin.A@118"/>
+    <hyperlink ref="B7" r:id="rId3" display="ShaneAlfin.A@118"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1017,13 +1079,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="18.7142857142857" customWidth="1"/>
     <col min="2" max="2" width="17.7142857142857" customWidth="1"/>
@@ -1031,34 +1093,58 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
-        <v>6</v>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
